--- a/encoding/xlsform/testdata/group_nested.xlsx
+++ b/encoding/xlsform/testdata/group_nested.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">label:English</t>
+    <t xml:space="preserve">label::English (en)</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::English (en)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +189,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -325,7 +322,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
